--- a/ToDoList/chapter02/ToDoList.xlsx
+++ b/ToDoList/chapter02/ToDoList.xlsx
@@ -213,9 +213,9 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
